--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85777.94493797897</v>
+        <v>106815.1539088448</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7195131.041204456</v>
+        <v>10705952.03988609</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22408678.48116681</v>
+        <v>21959305.34334327</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4048175.284938182</v>
+        <v>4033523.15596033</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K11" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L11" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M11" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N11" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P11" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K12" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L12" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8848,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L13" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M13" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N13" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O13" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P13" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K14" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L14" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M14" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N14" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P14" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K15" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L15" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9085,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L16" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M16" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N16" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O16" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P16" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K17" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L17" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M17" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N17" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P17" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K18" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L18" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9322,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L19" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M19" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N19" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O19" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P19" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K20" t="n">
-        <v>178.5259256286053</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L20" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M20" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N20" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O20" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P20" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K21" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L21" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9559,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L22" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M22" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N22" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O22" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P22" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K23" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L23" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M23" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N23" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O23" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P23" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K24" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L24" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9796,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L25" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M25" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N25" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O25" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P25" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K26" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L26" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M26" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N26" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O26" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P26" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K27" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L27" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L28" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M28" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N28" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O28" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P28" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K29" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L29" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M29" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N29" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O29" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P29" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K30" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L30" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10270,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L31" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M31" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N31" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O31" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P31" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K32" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L32" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M32" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N32" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O32" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P32" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K33" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L33" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L34" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M34" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N34" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O34" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P34" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K35" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L35" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M35" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N35" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O35" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P35" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,28 +10664,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K36" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L36" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10744,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L37" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M37" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N37" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O37" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P37" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L38" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M38" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N38" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O38" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P38" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K39" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L39" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10981,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L40" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M40" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N40" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O40" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P40" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>152.4584384387898</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K41" t="n">
-        <v>178.5259256286053</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L41" t="n">
-        <v>185.1345528304585</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M41" t="n">
-        <v>174.8082641504362</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N41" t="n">
-        <v>173.092942429529</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O41" t="n">
-        <v>176.5799690328405</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P41" t="n">
-        <v>184.6851766692592</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.1337327724307</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>109.3359295529847</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K42" t="n">
-        <v>109.9018576627471</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L42" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>101.6601675023969</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.1199747023527</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11218,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L43" t="n">
-        <v>112.6064015866137</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M43" t="n">
-        <v>115.5187468008241</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N43" t="n">
-        <v>105.0334967158646</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O43" t="n">
-        <v>117.0207492242812</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P43" t="n">
-        <v>118.9046203105124</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>152.4584384387898</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K44" t="n">
-        <v>178.5259256286053</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L44" t="n">
-        <v>185.1345528304585</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M44" t="n">
-        <v>174.8082641504362</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N44" t="n">
-        <v>173.092942429529</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5799690328405</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P44" t="n">
-        <v>184.6851766692592</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.1337327724307</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>109.3359295529847</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K45" t="n">
-        <v>109.9018576627471</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L45" t="n">
-        <v>102.1559258882048</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>100.147564836928</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>88.60784076578815</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>102.9419949889555</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>101.6601675023969</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.1199747023527</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0135169984386</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L46" t="n">
-        <v>112.6064015866137</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M46" t="n">
-        <v>115.5187468008241</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N46" t="n">
-        <v>105.0334967158646</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O46" t="n">
-        <v>117.0207492242812</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P46" t="n">
-        <v>118.9046203105124</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H11" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S11" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T11" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I12" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S12" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T12" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I13" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J13" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R13" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S13" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H14" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S14" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T14" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H15" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I15" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S15" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T15" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H16" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I16" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J16" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R16" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S16" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H17" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I17" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S17" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T17" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I18" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S18" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T18" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H19" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I19" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J19" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R19" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T19" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,13 +23983,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H20" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I20" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S20" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T20" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I21" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S21" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T21" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H22" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I22" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J22" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R22" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T22" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H23" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I23" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S23" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T23" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I24" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S24" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T24" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H25" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I25" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J25" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R25" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T25" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H26" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I26" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S26" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T26" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H27" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I27" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S27" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T27" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,16 +24615,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H28" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I28" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J28" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R28" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S28" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T28" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H29" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I29" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S29" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T29" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H30" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I30" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S30" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T30" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H31" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I31" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J31" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R31" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S31" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T31" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H32" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I32" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S32" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T32" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H33" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I33" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S33" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T33" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H34" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I34" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J34" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R34" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S34" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H35" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I35" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S35" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T35" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H36" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I36" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S36" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H37" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I37" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J37" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R37" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S37" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T37" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H38" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I38" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S38" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T38" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H39" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I39" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S39" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T39" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I40" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J40" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R40" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S40" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T40" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H41" t="n">
-        <v>335.2405560301149</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I41" t="n">
-        <v>194.2948511103278</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>124.0427042114947</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S41" t="n">
-        <v>199.4048000895783</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T41" t="n">
-        <v>221.724116043259</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4550839438196</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.8715267887701</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H42" t="n">
-        <v>108.9975730544513</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I42" t="n">
-        <v>81.28111005434542</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.27730238938381</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S42" t="n">
-        <v>166.1441609762024</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T42" t="n">
-        <v>197.7711412961891</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7624226492816</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H43" t="n">
-        <v>160.5034481666601</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I43" t="n">
-        <v>149.9343099158236</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J43" t="n">
-        <v>79.84818887335092</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.11225794228299</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R43" t="n">
-        <v>167.673289260987</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S43" t="n">
-        <v>220.1412455037475</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T43" t="n">
-        <v>227.7891191552493</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.5712699947707</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H44" t="n">
-        <v>335.2405560301149</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I44" t="n">
-        <v>194.2948511103278</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>124.0427042114947</v>
+        <v>63.10621817397966</v>
       </c>
       <c r="S44" t="n">
-        <v>199.4048000895783</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T44" t="n">
-        <v>221.724116043259</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4550839438196</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8715267887701</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H45" t="n">
-        <v>108.9975730544513</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I45" t="n">
-        <v>81.28111005434542</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.27730238938381</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S45" t="n">
-        <v>166.1441609762024</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T45" t="n">
-        <v>197.7711412961891</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6471978950781</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7624226492816</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5034481666601</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I46" t="n">
-        <v>149.9343099158236</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J46" t="n">
-        <v>79.84818887335092</v>
+        <v>49.0836256515036</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.11225794228299</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R46" t="n">
-        <v>167.673289260987</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S46" t="n">
-        <v>220.1412455037475</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T46" t="n">
-        <v>227.7891191552493</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0453340484737</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>350082.2668532751</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350082.2668532751</v>
+        <v>348551.6160383681</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>63659.57385074558</v>
       </c>
       <c r="C2" t="n">
-        <v>63659.57385074558</v>
+        <v>63659.5738507456</v>
       </c>
       <c r="D2" t="n">
         <v>63659.57385074558</v>
       </c>
       <c r="E2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="F2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764892</v>
       </c>
       <c r="G2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="H2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="I2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="J2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764889</v>
       </c>
       <c r="K2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764893</v>
       </c>
       <c r="L2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764892</v>
       </c>
       <c r="M2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="N2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764889</v>
       </c>
       <c r="O2" t="n">
-        <v>65218.09995624676</v>
+        <v>69673.52049764892</v>
       </c>
       <c r="P2" t="n">
-        <v>65218.09995624676</v>
+        <v>70133.25053964992</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>56655.56420365609</v>
+        <v>232388.7628016624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15022.15365471695</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="C4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="D4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="E4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="F4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="G4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="H4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.0442229452</v>
       </c>
       <c r="I4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="J4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="K4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="L4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="M4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="N4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="O4" t="n">
-        <v>34861.45039808236</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="P4" t="n">
-        <v>34861.45039808236</v>
+        <v>9574.238430060113</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="F5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="G5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="H5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="I5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="J5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="K5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="L5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="M5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="N5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="O5" t="n">
-        <v>1537.324729481596</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="P5" t="n">
-        <v>1537.324729481596</v>
+        <v>6797.799999175896</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975148</v>
+        <v>-12407.74204975147</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975148</v>
+        <v>-12407.74204975145</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975148</v>
+        <v>-12407.74204975147</v>
       </c>
       <c r="E6" t="n">
-        <v>-27836.23937497329</v>
+        <v>-180648.0571415522</v>
       </c>
       <c r="F6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011024</v>
       </c>
       <c r="G6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011023</v>
       </c>
       <c r="H6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011023</v>
       </c>
       <c r="I6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011023</v>
       </c>
       <c r="J6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011022</v>
       </c>
       <c r="K6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011026</v>
       </c>
       <c r="L6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011024</v>
       </c>
       <c r="M6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011023</v>
       </c>
       <c r="N6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011022</v>
       </c>
       <c r="O6" t="n">
-        <v>28819.3248286828</v>
+        <v>51740.70566011024</v>
       </c>
       <c r="P6" t="n">
-        <v>28819.3248286828</v>
+        <v>38739.05845569696</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="F3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="G3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="H3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="I3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="J3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="K3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="L3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="M3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="N3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="O3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="P3" t="n">
-        <v>70.51948300374293</v>
+        <v>311.8256880355916</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.51948300374293</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>22.57015525607437</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H11" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I11" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J11" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K11" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L11" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M11" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N11" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O11" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P11" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R11" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S11" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T11" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H12" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I12" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J12" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K12" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L12" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R12" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S12" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H13" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I13" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J13" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L13" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M13" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N13" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O13" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P13" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R13" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S13" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T13" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H14" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I14" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J14" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K14" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L14" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M14" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N14" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O14" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P14" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q14" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R14" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S14" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T14" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H15" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I15" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J15" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K15" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L15" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R15" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S15" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U15" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H16" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I16" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J16" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L16" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M16" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N16" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O16" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P16" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R16" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S16" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T16" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H17" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I17" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J17" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K17" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L17" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M17" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N17" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O17" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P17" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R17" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S17" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T17" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H18" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I18" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J18" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K18" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L18" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R18" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S18" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H19" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I19" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J19" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K19" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L19" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M19" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N19" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O19" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P19" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R19" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S19" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T19" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H20" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I20" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J20" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K20" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L20" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M20" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N20" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O20" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P20" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q20" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R20" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S20" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T20" t="n">
-        <v>1.241001153161345</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H21" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I21" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J21" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K21" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L21" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R21" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S21" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H22" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I22" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J22" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K22" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L22" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M22" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N22" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O22" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P22" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R22" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S22" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T22" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H23" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I23" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J23" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K23" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L23" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M23" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N23" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O23" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P23" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R23" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S23" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T23" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H24" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I24" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J24" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K24" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L24" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M24" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R24" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S24" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U24" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H25" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I25" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J25" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K25" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L25" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M25" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N25" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P25" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R25" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S25" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T25" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H26" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I26" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J26" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K26" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L26" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M26" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N26" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O26" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P26" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R26" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S26" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T26" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H27" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I27" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J27" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K27" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L27" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R27" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S27" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U27" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H28" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I28" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J28" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K28" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L28" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M28" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N28" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O28" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P28" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R28" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S28" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T28" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U28" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H29" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I29" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J29" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K29" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L29" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M29" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N29" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O29" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P29" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R29" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S29" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T29" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H30" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I30" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J30" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K30" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L30" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R30" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S30" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H31" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I31" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J31" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K31" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L31" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M31" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N31" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O31" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P31" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R31" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S31" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T31" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U31" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H32" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I32" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J32" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K32" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L32" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M32" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N32" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O32" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P32" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R32" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S32" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T32" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H33" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I33" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J33" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K33" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L33" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R33" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S33" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U33" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H34" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I34" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J34" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K34" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L34" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M34" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N34" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O34" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P34" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R34" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S34" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T34" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U34" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H35" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I35" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J35" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K35" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L35" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M35" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N35" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O35" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P35" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R35" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S35" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T35" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H36" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I36" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J36" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K36" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L36" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R36" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S36" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U36" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H37" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I37" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J37" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K37" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L37" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M37" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N37" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O37" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P37" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R37" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S37" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T37" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U37" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H38" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I38" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J38" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K38" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L38" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M38" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N38" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O38" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P38" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q38" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R38" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S38" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T38" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H39" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I39" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J39" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K39" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L39" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R39" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S39" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H40" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I40" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J40" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K40" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L40" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M40" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N40" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O40" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P40" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R40" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S40" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T40" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U40" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H41" t="n">
-        <v>2.90334735803852</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I41" t="n">
-        <v>10.92945675779618</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J41" t="n">
-        <v>24.06131847472936</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K41" t="n">
-        <v>36.06167914025072</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L41" t="n">
-        <v>44.73770176527905</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M41" t="n">
-        <v>49.77931324615468</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N41" t="n">
-        <v>50.58479457714719</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O41" t="n">
-        <v>47.76578710330409</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P41" t="n">
-        <v>40.7669941921286</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q41" t="n">
-        <v>30.61431485515757</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R41" t="n">
-        <v>17.80811848938238</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S41" t="n">
-        <v>6.460151633960975</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T41" t="n">
-        <v>1.241001153161345</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H42" t="n">
-        <v>1.464942467681528</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I42" t="n">
-        <v>5.222433411126246</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J42" t="n">
-        <v>14.33075644701535</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K42" t="n">
-        <v>24.49354533725286</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L42" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>28.9648797265751</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.36225503151825</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R42" t="n">
-        <v>9.417677371707409</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S42" t="n">
-        <v>2.817452929441992</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H43" t="n">
-        <v>1.130623842256732</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I43" t="n">
-        <v>3.824236881580028</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J43" t="n">
-        <v>8.990656054428012</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K43" t="n">
-        <v>14.77440971783335</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L43" t="n">
-        <v>18.90615778759364</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M43" t="n">
-        <v>19.93389254809081</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N43" t="n">
-        <v>19.4599091377378</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O43" t="n">
-        <v>17.9743757662655</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P43" t="n">
-        <v>15.38018363740648</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.64844193356518</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R43" t="n">
-        <v>5.717858408795285</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S43" t="n">
-        <v>2.216161457675002</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T43" t="n">
-        <v>0.543346836258347</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U43" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2834954090602729</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H44" t="n">
-        <v>2.90334735803852</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I44" t="n">
-        <v>10.92945675779618</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J44" t="n">
-        <v>24.06131847472936</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K44" t="n">
-        <v>36.06167914025072</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L44" t="n">
-        <v>44.73770176527905</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M44" t="n">
-        <v>49.77931324615468</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N44" t="n">
-        <v>50.58479457714719</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>47.76578710330409</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P44" t="n">
-        <v>40.7669941921286</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.61431485515757</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R44" t="n">
-        <v>17.80811848938238</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S44" t="n">
-        <v>6.460151633960975</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T44" t="n">
-        <v>1.241001153161345</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02267963272482183</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1516834162722018</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H45" t="n">
-        <v>1.464942467681528</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I45" t="n">
-        <v>5.222433411126246</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J45" t="n">
-        <v>14.33075644701535</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K45" t="n">
-        <v>24.49354533725286</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L45" t="n">
-        <v>32.93459439717259</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>38.43311823703989</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>39.45032851546181</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>36.08934334437777</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>28.9648797265751</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.36225503151825</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R45" t="n">
-        <v>9.417677371707409</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S45" t="n">
-        <v>2.817452929441992</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6113906120796201</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U45" t="n">
-        <v>0.009979172123171174</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1271662808264217</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H46" t="n">
-        <v>1.130623842256732</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I46" t="n">
-        <v>3.824236881580028</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J46" t="n">
-        <v>8.990656054428012</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L46" t="n">
-        <v>18.90615778759364</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M46" t="n">
-        <v>19.93389254809081</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N46" t="n">
-        <v>19.4599091377378</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O46" t="n">
-        <v>17.9743757662655</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P46" t="n">
-        <v>15.38018363740648</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.64844193356518</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R46" t="n">
-        <v>5.717858408795285</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S46" t="n">
-        <v>2.216161457675002</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T46" t="n">
-        <v>0.543346836258347</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U46" t="n">
-        <v>0.006936342590532099</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106815.1539088448</v>
+        <v>-16718.1629622304</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10705952.03988609</v>
+        <v>10680291.96747503</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21959305.34334327</v>
+        <v>21963136.4270266</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4033523.15596033</v>
+        <v>4033425.434042539</v>
       </c>
     </row>
     <row r="11">
@@ -8692,7 +8692,7 @@
         <v>77.82547842006969</v>
       </c>
       <c r="K11" t="n">
-        <v>66.67046515959973</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L11" t="n">
         <v>46.36796318225549</v>
@@ -8701,7 +8701,7 @@
         <v>20.40369570745969</v>
       </c>
       <c r="N11" t="n">
-        <v>16.18994664413867</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O11" t="n">
         <v>28.4209193578335</v>
@@ -8771,7 +8771,7 @@
         <v>64.88504985279644</v>
       </c>
       <c r="K12" t="n">
-        <v>33.92822422317468</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>44.67310448839555</v>
       </c>
       <c r="O13" t="n">
-        <v>61.26815738962976</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P13" t="n">
-        <v>71.19864643810423</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.12451876312399</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K44" t="n">
-        <v>55.12872290169071</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L44" t="n">
-        <v>32.04941132065568</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M44" t="n">
-        <v>4.471547871848941</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O44" t="n">
-        <v>13.13321183460977</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P44" t="n">
-        <v>45.18715087494314</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.37652493873003</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.29841103797475</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K45" t="n">
-        <v>26.08892793956251</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.547058496013619</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.86548610568364</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>60.45788912455299</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L46" t="n">
-        <v>47.91260360151773</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M46" t="n">
-        <v>47.308207565346</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N46" t="n">
-        <v>38.44485164535457</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O46" t="n">
-        <v>55.51535781714706</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P46" t="n">
-        <v>66.27613257700894</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23357,7 +23357,7 @@
         <v>104.4536411525054</v>
       </c>
       <c r="I12" t="n">
-        <v>65.08226108510175</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.06572200612096</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S12" t="n">
         <v>157.4050367233684</v>
@@ -25879,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6011947986627</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3057734279745</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I44" t="n">
-        <v>156.8960271123767</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.10621817397966</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S44" t="n">
-        <v>177.2992115582687</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4776118722965</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U44" t="n">
-        <v>251.377477928131</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3524908005884</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9847781159594</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I45" t="n">
-        <v>63.41079204019437</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.05154164947012</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5032951430903</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6790620280356</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.327280312339</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H46" t="n">
-        <v>156.634637207297</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I46" t="n">
-        <v>136.8483930921292</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J46" t="n">
-        <v>49.0836256515036</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.67502098247385</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R46" t="n">
-        <v>148.1077074562735</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S46" t="n">
-        <v>212.5579013226647</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T46" t="n">
-        <v>225.929874624676</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348551.6160383681</v>
+        <v>348382.3932949153</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>63659.57385074558</v>
       </c>
       <c r="C2" t="n">
-        <v>63659.5738507456</v>
+        <v>63659.57385074558</v>
       </c>
       <c r="D2" t="n">
         <v>63659.57385074558</v>
       </c>
       <c r="E2" t="n">
+        <v>69673.52049764892</v>
+      </c>
+      <c r="F2" t="n">
         <v>69673.5204976489</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>69673.52049764893</v>
+      </c>
+      <c r="H2" t="n">
         <v>69673.52049764892</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69673.5204976489</v>
-      </c>
-      <c r="H2" t="n">
-        <v>69673.5204976489</v>
       </c>
       <c r="I2" t="n">
         <v>69673.5204976489</v>
       </c>
       <c r="J2" t="n">
-        <v>69673.52049764889</v>
+        <v>69673.52049764892</v>
       </c>
       <c r="K2" t="n">
-        <v>69673.52049764893</v>
+        <v>69673.52049764892</v>
       </c>
       <c r="L2" t="n">
         <v>69673.52049764892</v>
       </c>
       <c r="M2" t="n">
+        <v>69673.52049764889</v>
+      </c>
+      <c r="N2" t="n">
         <v>69673.5204976489</v>
       </c>
-      <c r="N2" t="n">
-        <v>69673.52049764889</v>
-      </c>
       <c r="O2" t="n">
-        <v>69673.52049764892</v>
+        <v>69673.5204976489</v>
       </c>
       <c r="P2" t="n">
-        <v>70133.25053964992</v>
+        <v>69673.5204976489</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15022.15365471695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="C4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="D4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="E4" t="n">
-        <v>11627.04422294521</v>
+        <v>11627.0442229452</v>
       </c>
       <c r="F4" t="n">
         <v>11627.04422294521</v>
@@ -26459,7 +26459,7 @@
         <v>11627.04422294521</v>
       </c>
       <c r="P4" t="n">
-        <v>9574.238430060113</v>
+        <v>11627.04422294521</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>6305.770614593474</v>
       </c>
       <c r="P5" t="n">
-        <v>6797.799999175896</v>
+        <v>6305.770614593474</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975147</v>
+        <v>-27450.76277756276</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975145</v>
+        <v>-27450.76277756276</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975147</v>
+        <v>-27450.76277756276</v>
       </c>
       <c r="E6" t="n">
-        <v>-180648.0571415522</v>
+        <v>-195189.9156487882</v>
       </c>
       <c r="F6" t="n">
-        <v>51740.70566011024</v>
+        <v>37198.84715287423</v>
       </c>
       <c r="G6" t="n">
-        <v>51740.70566011023</v>
+        <v>37198.84715287426</v>
       </c>
       <c r="H6" t="n">
-        <v>51740.70566011023</v>
+        <v>37198.84715287424</v>
       </c>
       <c r="I6" t="n">
-        <v>51740.70566011023</v>
+        <v>37198.84715287423</v>
       </c>
       <c r="J6" t="n">
-        <v>51740.70566011022</v>
+        <v>37198.84715287424</v>
       </c>
       <c r="K6" t="n">
-        <v>51740.70566011026</v>
+        <v>37198.84715287424</v>
       </c>
       <c r="L6" t="n">
-        <v>51740.70566011024</v>
+        <v>37198.84715287424</v>
       </c>
       <c r="M6" t="n">
-        <v>51740.70566011023</v>
+        <v>37198.84715287422</v>
       </c>
       <c r="N6" t="n">
-        <v>51740.70566011022</v>
+        <v>37198.84715287423</v>
       </c>
       <c r="O6" t="n">
-        <v>51740.70566011024</v>
+        <v>37198.84715287423</v>
       </c>
       <c r="P6" t="n">
-        <v>38739.05845569696</v>
+        <v>37198.84715287423</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>289.2555327795172</v>
       </c>
       <c r="P3" t="n">
-        <v>311.8256880355916</v>
+        <v>289.2555327795172</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.57015525607437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31791,7 +31791,7 @@
         <v>26.49813247522914</v>
       </c>
       <c r="T11" t="n">
-        <v>5.090315958763161</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U11" t="n">
         <v>0.093026905014518</v>
@@ -31934,19 +31934,19 @@
         <v>79.82030136520682</v>
       </c>
       <c r="O13" t="n">
-        <v>73.72696760091695</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P13" t="n">
-        <v>63.08615750981467</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q13" t="n">
         <v>43.6775854497071</v>
       </c>
       <c r="R13" t="n">
-        <v>23.45340762504084</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S13" t="n">
-        <v>9.090210759644823</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T13" t="n">
         <v>2.228690170596279</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.253570605168206</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H44" t="n">
-        <v>12.83812996017889</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I44" t="n">
-        <v>48.32828075574732</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3952381503951</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4588818671653</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L44" t="n">
-        <v>197.8228432750819</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M44" t="n">
-        <v>220.116029524742</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O44" t="n">
-        <v>211.2125443015348</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P44" t="n">
-        <v>180.2650199864447</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3715226888582</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R44" t="n">
-        <v>78.74460452689742</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S44" t="n">
-        <v>28.56574016527053</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T44" t="n">
-        <v>5.487505324123826</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H45" t="n">
-        <v>6.477737406173327</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I45" t="n">
-        <v>23.0927514252773</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J45" t="n">
-        <v>63.36827496202527</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K45" t="n">
-        <v>108.3064750604375</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -34465,22 +34465,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>128.0779887329584</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.61674362818734</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R45" t="n">
-        <v>41.64343811162109</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45831876255405</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T45" t="n">
-        <v>2.703469880233099</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H46" t="n">
-        <v>4.999434801619816</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I46" t="n">
-        <v>16.91015370527438</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J46" t="n">
-        <v>39.75521927627533</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K46" t="n">
-        <v>65.33003759171899</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L46" t="n">
-        <v>83.59995577268958</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M46" t="n">
-        <v>88.14443178356892</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N46" t="n">
-        <v>86.04855420824779</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O46" t="n">
-        <v>79.47976717339965</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P46" t="n">
-        <v>68.00867137090997</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.08567889337432</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R46" t="n">
-        <v>25.28344021350878</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S46" t="n">
-        <v>9.799505638757848</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T46" t="n">
-        <v>2.402591366831606</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
